--- a/models/classifiers/feature_importances/feat_imp_classification/xgboost_fried_feature_importances.xlsx
+++ b/models/classifiers/feature_importances/feat_imp_classification/xgboost_fried_feature_importances.xlsx
@@ -448,51 +448,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>leftHandV2_baseline</t>
+          <t>Sexe</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1827186495065689</v>
+        <v>1.722014904022217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FORCEPREHENSION</t>
+          <t>EXAMCLIN02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1478125751018524</v>
+        <v>0.7297588586807251</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EXAMCLIN02</t>
+          <t>EXAMCLIN023</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09825607389211655</v>
+        <v>0.6593565344810486</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SF3603_SQ006_</t>
+          <t>Patient bénéficiant de Lunettes de vue</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07632648944854736</v>
+        <v>0.5527763366699219</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mean_distance_AP_YF_baseline</t>
+          <t>ICOPE05 TROUBLE AUDITIF</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06972802430391312</v>
+        <v>0.4390335083007812</v>
       </c>
     </row>
   </sheetData>
